--- a/metadata/20190731_bundesbank/bundesbank_pub_dataset_linkages_sbr_final.xlsx
+++ b/metadata/20190731_bundesbank/bundesbank_pub_dataset_linkages_sbr_final.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sophierand/RichContextMetadata/metadata/20190731_bundesbank/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3A9B681-1B3D-7B40-A675-A68A7A02D13A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9258F999-36C1-514D-8E8E-38C1693DE21C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1180" yWindow="1460" windowWidth="27240" windowHeight="14860" activeTab="1" xr2:uid="{24507E4E-3133-EB49-B879-5703C7B0E7B8}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029" concurrentCalc="0"/>
+  <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2212" uniqueCount="405">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2210" uniqueCount="405">
   <si>
     <t>bbk_dataset_y</t>
   </si>
@@ -7506,10 +7506,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{482539A9-B6B8-5845-B19E-3E3A600C685C}">
-  <dimension ref="A1:C245"/>
+  <dimension ref="A1:C244"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A118" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9911,54 +9911,57 @@
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
-        <v>362</v>
+        <v>67</v>
       </c>
       <c r="B219" t="s">
-        <v>363</v>
+        <v>364</v>
+      </c>
+      <c r="C219" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
-        <v>67</v>
+        <v>365</v>
       </c>
       <c r="B220" t="s">
-        <v>364</v>
-      </c>
-      <c r="C220" t="s">
-        <v>41</v>
+        <v>366</v>
+      </c>
+      <c r="C220" s="1" t="s">
+        <v>367</v>
       </c>
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="B221" t="s">
-        <v>366</v>
-      </c>
-      <c r="C221" s="1" t="s">
-        <v>367</v>
+        <v>369</v>
+      </c>
+      <c r="C221" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="B222" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="C222" t="s">
-        <v>91</v>
+        <v>33</v>
       </c>
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
-        <v>370</v>
+        <v>6</v>
       </c>
       <c r="B223" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="C223" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.2">
@@ -9966,10 +9969,10 @@
         <v>6</v>
       </c>
       <c r="B224" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="C224" t="s">
-        <v>41</v>
+        <v>374</v>
       </c>
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.2">
@@ -9977,103 +9980,103 @@
         <v>6</v>
       </c>
       <c r="B225" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="C225" t="s">
-        <v>374</v>
+        <v>12</v>
       </c>
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
-        <v>6</v>
+        <v>228</v>
       </c>
       <c r="B226" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="C226" t="s">
-        <v>12</v>
+        <v>184</v>
       </c>
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
-        <v>228</v>
+        <v>67</v>
       </c>
       <c r="B227" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="C227" t="s">
-        <v>184</v>
+        <v>41</v>
       </c>
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
-        <v>67</v>
+        <v>6</v>
       </c>
       <c r="B228" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C228" t="s">
-        <v>41</v>
+        <v>84</v>
       </c>
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A229" t="s">
-        <v>6</v>
-      </c>
       <c r="B229" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="C229" t="s">
-        <v>84</v>
+        <v>162</v>
       </c>
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A230" t="s">
+        <v>6</v>
+      </c>
       <c r="B230" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="C230" t="s">
-        <v>162</v>
+        <v>381</v>
       </c>
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
-        <v>6</v>
+        <v>382</v>
       </c>
       <c r="B231" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="C231" t="s">
-        <v>381</v>
+        <v>41</v>
       </c>
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="B232" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="C232" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="B233" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="C233" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
     </row>
     <row r="234" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
-        <v>386</v>
+        <v>67</v>
       </c>
       <c r="B234" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="C234" t="s">
         <v>41</v>
@@ -10081,10 +10084,10 @@
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
-        <v>67</v>
+        <v>6</v>
       </c>
       <c r="B235" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="C235" t="s">
         <v>41</v>
@@ -10095,10 +10098,10 @@
         <v>6</v>
       </c>
       <c r="B236" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="C236" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
     </row>
     <row r="237" spans="1:3" x14ac:dyDescent="0.2">
@@ -10106,10 +10109,10 @@
         <v>6</v>
       </c>
       <c r="B237" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="C237" t="s">
-        <v>12</v>
+        <v>109</v>
       </c>
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.2">
@@ -10117,18 +10120,18 @@
         <v>6</v>
       </c>
       <c r="B238" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="C238" t="s">
-        <v>109</v>
+        <v>29</v>
       </c>
     </row>
     <row r="239" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
-        <v>6</v>
+        <v>393</v>
       </c>
       <c r="B239" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="C239" t="s">
         <v>29</v>
@@ -10136,73 +10139,62 @@
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
-        <v>393</v>
+        <v>67</v>
       </c>
       <c r="B240" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="C240" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
-        <v>67</v>
+        <v>6</v>
       </c>
       <c r="B241" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="C241" t="s">
-        <v>41</v>
+        <v>397</v>
       </c>
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
-        <v>6</v>
+        <v>398</v>
       </c>
       <c r="B242" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="C242" t="s">
-        <v>397</v>
+        <v>72</v>
       </c>
     </row>
     <row r="243" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="B243" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="C243" t="s">
-        <v>72</v>
+        <v>139</v>
       </c>
     </row>
     <row r="244" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="B244" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="C244" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="245" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A245" t="s">
-        <v>402</v>
-      </c>
-      <c r="B245" t="s">
-        <v>403</v>
-      </c>
-      <c r="C245" t="s">
         <v>72</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
-  <conditionalFormatting sqref="B1:B246 B355:B1048576">
+  <conditionalFormatting sqref="B354:B1048576 B1:B245">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
